--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -123,9 +123,6 @@
     <t>Tibits</t>
   </si>
   <si>
-    <t>www.tibits.ch</t>
-  </si>
-  <si>
     <t>Self-serving, but good food and close to the station. Table booking possible as well.</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>https://www.klarabasel.ch/</t>
+  </si>
+  <si>
+    <t>https://www.tibits.ch</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,17 +528,17 @@
         <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -602,42 +602,42 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -702,8 +702,9 @@
     <hyperlink ref="B7" r:id="rId3"/>
     <hyperlink ref="B8" r:id="rId4"/>
     <hyperlink ref="B2" r:id="rId5"/>
+    <hyperlink ref="B3" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDAF976-4EEB-4E92-A134-4A695DEF62C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -45,15 +46,9 @@
     <t>https://volkshaus-basel.ch/</t>
   </si>
   <si>
-    <t>https://www.kohlmanns.ch</t>
-  </si>
-  <si>
     <t>Burger. Price: middle.</t>
   </si>
   <si>
-    <t>Flammenkuchen. Price: middle.</t>
-  </si>
-  <si>
     <t>Swiss and International. Price: middle.</t>
   </si>
   <si>
@@ -82,9 +77,6 @@
   </si>
   <si>
     <t>Volkshaus</t>
-  </si>
-  <si>
-    <t>Kohlmanns</t>
   </si>
   <si>
     <t>Parterre</t>
@@ -162,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -499,20 +491,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="31.5703125" customWidth="1"/>
-    <col min="3" max="3" width="105.42578125" style="2" customWidth="1"/>
+    <col min="1" max="2" width="31.54296875" customWidth="1"/>
+    <col min="3" max="3" width="105.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,18 +515,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -545,42 +537,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -589,122 +581,110 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>36</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B2" r:id="rId5"/>
-    <hyperlink ref="B3" r:id="rId6"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>